--- a/Data/aearep-602/candidatepackages.xlsx
+++ b/Data/aearep-602/candidatepackages.xlsx
@@ -22,10 +22,10 @@
     <t>fs</t>
   </si>
   <si>
+    <t>rd</t>
+  </si>
+  <si>
     <t>fsum</t>
-  </si>
-  <si>
-    <t>rd</t>
   </si>
   <si>
     <t>rmse</t>
@@ -220,7 +220,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -232,7 +232,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -244,7 +244,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -256,7 +256,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -268,7 +268,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -280,10 +280,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D7"/>
     </row>
@@ -292,10 +292,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1472</v>
+        <v>1306</v>
       </c>
       <c r="C8">
-        <v>0.48806366324424744</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D8"/>
     </row>
@@ -304,10 +304,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1619</v>
+        <v>1570</v>
       </c>
       <c r="C9">
-        <v>0.5368037223815918</v>
+        <v>0.51900827884674072</v>
       </c>
       <c r="D9"/>
     </row>
@@ -316,10 +316,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1753</v>
+        <v>1904</v>
       </c>
       <c r="C10">
-        <v>0.5812334418296814</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D10"/>
     </row>
